--- a/Time Table Jan 2019.xlsx
+++ b/Time Table Jan 2019.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Time</t>
   </si>
@@ -118,6 +118,105 @@
   <si>
     <t>TH time</t>
   </si>
+  <si>
+    <t>Financial Management System</t>
+  </si>
+  <si>
+    <t>Cash in for me</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>Cash out</t>
+  </si>
+  <si>
+    <t>who knows?</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>(food</t>
+  </si>
+  <si>
+    <t>THB/day</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>THB/day)</t>
+  </si>
+  <si>
+    <t>iOS call</t>
+  </si>
+  <si>
+    <t>THB/month</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Works if weekenf stays home all day, best to go Saturday</t>
+  </si>
+  <si>
+    <t>ไห</t>
+  </si>
+  <si>
+    <t>ไห 6 = ค่ากิน อยู่รอด</t>
+  </si>
+  <si>
+    <t>% เมื่อหักจากไห 6</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>stay home Sunday</t>
+  </si>
+  <si>
+    <t>ไห 1 : Financial Freedom</t>
+  </si>
+  <si>
+    <t>ไห 2.1 : LTSS1 : Fix things</t>
+  </si>
+  <si>
+    <t>ไห 2.2 : LTSS2 : Emergency downfalls</t>
+  </si>
+  <si>
+    <t>Total COLD</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>ไห 3 : PLAY</t>
+  </si>
+  <si>
+    <t>ไห 4 : Education (ยังไม่ใช้วัยเรียน)</t>
+  </si>
+  <si>
+    <t>วัยทำงาน เป็น HOT</t>
+  </si>
+  <si>
+    <t>ไห 5 : GIVE</t>
+  </si>
+  <si>
+    <t>Total HOT</t>
+  </si>
+  <si>
+    <t>ไห 6 :Necessities Account</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="mmm\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -146,6 +245,25 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -250,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -278,6 +396,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12349,10 +12472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12360,20 +12483,301 @@
     <col min="1" max="26" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16">
+        <v>4500</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="16">
+        <v>20</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="16">
+        <v>70</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="16">
+        <v>65</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="16">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="16">
+        <f>((S1+W1)*O1) + AA1</f>
+        <v>2770</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="16">
+        <v>4</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="16">
+        <v>50</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="16">
+        <v>46</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="16">
+        <f>((S2+W2)*O2)</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17">
+        <f>ROUND(F9*(20/100),0)</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17">
+        <f>ROUND(F9*(20/100),0)</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17">
+        <f>ROUND(F9*(20/100),0)</f>
+        <v>269</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17">
+        <f>SUM(H3:H5)+H7</f>
+        <v>1076</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="17">
+        <f>L5</f>
+        <v>1076</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <f>ROUND(F9*(15/100),0)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
+        <f>ROUND(F9*(20/100),0)</f>
+        <v>269</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <f>ROUND(F9*(5/100),0)</f>
+        <v>67</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <f>SUM(H6:H8)-H7</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
+        <f>H1-H9</f>
+        <v>1346</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>AD1+AD2</f>
+        <v>3154</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="6">
+        <f>H9+L8</f>
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43466</v>
       </c>
@@ -12404,7 +12808,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="14"/>
     </row>
-    <row r="12" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -12481,7 +12885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -12510,7 +12914,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -12538,7 +12942,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -12569,7 +12973,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>

--- a/Time Table Jan 2019.xlsx
+++ b/Time Table Jan 2019.xlsx
@@ -391,16 +391,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10760,15 +10760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
+      <xdr:colOff>21773</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>43542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9797</xdr:rowOff>
+      <xdr:rowOff>20682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10777,7 +10777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6749144" y="7173686"/>
+          <a:off x="6662059" y="7184571"/>
           <a:ext cx="2198913" cy="423454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10812,7 +10812,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Meusuem</a:t>
+            <a:t>Meusuem or Aquarium, Depends on which seems more interesting</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
@@ -12475,7 +12475,7 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12484,17 +12484,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13">
         <v>4500</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -12504,56 +12504,56 @@
       <c r="L1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="13">
         <v>20</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="13">
         <v>70</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="16">
+      <c r="W1" s="13">
         <v>65</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="16">
+      <c r="AA1" s="13">
         <v>70</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="16">
+      <c r="AD1" s="13">
         <f>((S1+W1)*O1) + AA1</f>
         <v>2770</v>
       </c>
@@ -12574,116 +12574,116 @@
       <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="13">
         <v>4</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="13">
         <v>50</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="13">
         <v>46</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AD2" s="13">
         <f>((S2+W2)*O2)</f>
         <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15">
         <v>0.2</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15">
         <v>0.2</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15">
         <v>0.2</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14">
         <f>SUM(H3:H5)+H7</f>
         <v>1076</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="14">
         <f>L5</f>
         <v>1076</v>
       </c>
@@ -12697,7 +12697,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>0.15</v>
       </c>
       <c r="G6" s="6"/>
@@ -12707,17 +12707,17 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15">
         <v>0.2</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
@@ -12732,7 +12732,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>0.05</v>
       </c>
       <c r="G8" s="6"/>
@@ -12750,18 +12750,18 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
         <f>H1-H9</f>
         <v>1346</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <f>AD1+AD2</f>
         <v>3154</v>
       </c>
@@ -12781,32 +12781,32 @@
       <c r="A11" s="1">
         <v>43466</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="14"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="19"/>
     </row>
     <row r="12" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -13096,32 +13096,32 @@
       <c r="A21" s="1">
         <v>43466</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="14"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="19"/>
     </row>
     <row r="22" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -13408,32 +13408,32 @@
       <c r="A31" s="1">
         <v>43466</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="19"/>
     </row>
     <row r="32" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -13720,32 +13720,32 @@
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="14"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="19"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
